--- a/data/trans_orig/IP3108-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{970B5D3E-69B7-493C-A94E-FBE1FCD15CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C728AB-0CA7-46FB-9730-689C020519AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70C32146-89F1-4781-A0CE-EBA151C4AF91}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{37C9BDDF-B78B-449D-98BC-5CCE0ABA084B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>3 o 4 veces a la semana</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>3,7%</t>
@@ -88,9 +331,6 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
     <t>3,95%</t>
   </si>
   <si>
@@ -100,37 +340,28 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,65%</t>
@@ -160,198 +391,183 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
@@ -376,28 +592,22 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -415,214 +625,49 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -643,25 +688,19 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -685,48 +724,198 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
     <t>2,98%</t>
   </si>
   <si>
@@ -739,9 +928,6 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>6,63%</t>
   </si>
   <si>
@@ -754,25 +940,16 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -784,9 +961,6 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
     <t>5,99%</t>
   </si>
   <si>
@@ -796,133 +970,139 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -931,31 +1111,25 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>0,79%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -970,178 +1144,37 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -1159,13 +1192,16 @@
     <t>3,24%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -1177,48 +1213,183 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
   </si>
   <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
@@ -1231,28 +1402,16 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -1270,115 +1429,109 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -1393,160 +1546,52 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>2,08%</t>
@@ -1555,58 +1600,13 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
     <t>0,66%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1886D-8DB8-47B3-8D47-C1C71E284D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0398FA-7B15-47C0-89A3-DFDF3D80430C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>7455</v>
+        <v>22248</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2131,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>7480</v>
+        <v>21081</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2143,226 +2143,226 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>56</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43329</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14936</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2773</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4968</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7741</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>3318</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>4479</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>7797</v>
+        <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>184080</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>157507</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>341587</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3910</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,108 +2371,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>201536</v>
+        <v>22248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>177004</v>
+        <v>22010</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>589</v>
+        <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>378540</v>
+        <v>44258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>4068</v>
+        <v>107727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="I10" s="7">
-        <v>1915</v>
+        <v>98296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="N10" s="7">
-        <v>5984</v>
+        <v>206023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -2481,13 +2481,13 @@
         <v>1269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2496,13 +2496,13 @@
         <v>3473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2511,166 +2511,166 @@
         <v>4741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3346</v>
+        <v>4068</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1790</v>
+        <v>1915</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5137</v>
+        <v>5984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>107727</v>
+        <v>2879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>98296</v>
+        <v>1329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>206023</v>
+        <v>4208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>2879</v>
+        <v>3346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1329</v>
+        <v>1790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5137</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4208</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2685,13 @@
         <v>119289</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>160</v>
@@ -2700,13 +2700,13 @@
         <v>106804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>341</v>
@@ -2715,270 +2715,270 @@
         <v>226093</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>8565</v>
+        <v>184080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="I16" s="7">
-        <v>7038</v>
+        <v>157507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>532</v>
       </c>
       <c r="N16" s="7">
-        <v>15603</v>
+        <v>341587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3960</v>
+        <v>2773</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>4735</v>
+        <v>4968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>8695</v>
+        <v>7741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>650</v>
+        <v>7455</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>2210</v>
+        <v>7480</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>2860</v>
+        <v>14936</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>178102</v>
+        <v>3910</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>180512</v>
+        <v>2570</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>498</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>358614</v>
+        <v>6480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>2568</v>
+        <v>3318</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>2874</v>
+        <v>4479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>5441</v>
+        <v>7797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,306 +2987,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D21" s="7">
-        <v>193845</v>
+        <v>201536</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="I21" s="7">
-        <v>197368</v>
+        <v>177004</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="N21" s="7">
-        <v>391213</v>
+        <v>378540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>124859</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>114502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="N22" s="7">
-        <v>929</v>
+        <v>239360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>2868</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>4869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4793</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7286</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>22248</v>
+        <v>2015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>21081</v>
+        <v>2603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>148</v>
       </c>
       <c r="M25" s="7">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>43329</v>
+        <v>4617</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>5620</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,306 +3295,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="D27" s="7">
-        <v>22248</v>
+        <v>134637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="I27" s="7">
-        <v>22010</v>
+        <v>127115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="N27" s="7">
-        <v>44258</v>
+        <v>261752</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="D28" s="7">
-        <v>2493</v>
+        <v>178102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="I28" s="7">
-        <v>4793</v>
+        <v>180512</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="N28" s="7">
-        <v>7286</v>
+        <v>358614</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>2001</v>
+        <v>3960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>2868</v>
+        <v>4735</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N29" s="7">
-        <v>4869</v>
+        <v>8695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>3270</v>
+        <v>8565</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>2350</v>
+        <v>7038</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N30" s="7">
-        <v>5620</v>
+        <v>15603</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>124859</v>
+        <v>2568</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>114502</v>
+        <v>2874</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
-        <v>383</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>239360</v>
+        <v>5441</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>650</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
+        <v>2210</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" s="7">
         <v>4</v>
       </c>
-      <c r="I32" s="7">
-        <v>2603</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M32" s="7">
-        <v>7</v>
-      </c>
       <c r="N32" s="7">
-        <v>4617</v>
+        <v>2860</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,49 +3603,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="D33" s="7">
-        <v>134637</v>
+        <v>193845</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="I33" s="7">
-        <v>127115</v>
+        <v>197368</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>419</v>
+        <v>543</v>
       </c>
       <c r="N33" s="7">
-        <v>261752</v>
+        <v>391213</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,55 +3656,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>928</v>
       </c>
       <c r="D34" s="7">
-        <v>22581</v>
+        <v>617015</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="H34" s="7">
-        <v>33</v>
+        <v>852</v>
       </c>
       <c r="I34" s="7">
-        <v>22155</v>
+        <v>571897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7">
-        <v>66</v>
+        <v>1780</v>
       </c>
       <c r="N34" s="7">
-        <v>44737</v>
+        <v>1188912</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>15</v>
@@ -3713,13 +3713,13 @@
         <v>10003</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -3728,13 +3728,13 @@
         <v>16044</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>39</v>
@@ -3743,55 +3743,55 @@
         <v>26047</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7">
-        <v>10584</v>
+        <v>22581</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="H36" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I36" s="7">
-        <v>10829</v>
+        <v>22155</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="M36" s="7">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N36" s="7">
-        <v>21413</v>
+        <v>44737</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>213</v>
@@ -3800,109 +3800,109 @@
         <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>928</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7">
-        <v>617015</v>
+        <v>11371</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
-        <v>852</v>
+        <v>14</v>
       </c>
       <c r="I37" s="7">
-        <v>571897</v>
+        <v>9376</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>1780</v>
+        <v>31</v>
       </c>
       <c r="N37" s="7">
-        <v>1188912</v>
+        <v>20746</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7">
+        <v>10584</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="7">
         <v>17</v>
       </c>
-      <c r="D38" s="7">
-        <v>11371</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="I38" s="7">
+        <v>10829</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="7">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7">
-        <v>9376</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>33</v>
+      </c>
+      <c r="N38" s="7">
+        <v>21413</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="7">
-        <v>31</v>
-      </c>
-      <c r="N38" s="7">
-        <v>20746</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="P38" s="7" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3917,13 @@
         <v>671554</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>940</v>
@@ -3932,13 +3932,13 @@
         <v>630300</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>1949</v>
@@ -3947,13 +3947,13 @@
         <v>1301855</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +3974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4C3EF3-5336-4A74-B14E-C9D8C8C7E39C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30ACD2E-747B-45A6-82BD-312B5B0D7136}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4092,253 +4092,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>6040</v>
+        <v>23702</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18415</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="7">
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
-        <v>7322</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42116</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13361</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6332</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>926</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>926</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7076</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="7">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7">
-        <v>13408</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>3314</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="7">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6313</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>9627</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>185028</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>166612</v>
+        <v>1312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>351638</v>
+        <v>1312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3156</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>5168</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,108 +4347,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>202725</v>
+        <v>23702</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>190479</v>
+        <v>20653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>588</v>
+        <v>50</v>
       </c>
       <c r="N9" s="7">
-        <v>393203</v>
+        <v>44354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D10" s="7">
-        <v>2644</v>
+        <v>110398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>2161</v>
+        <v>102261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="N10" s="7">
-        <v>4805</v>
+        <v>212660</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -4457,13 +4457,13 @@
         <v>1935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4472,13 +4472,13 @@
         <v>2227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4487,166 +4487,166 @@
         <v>4162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>687</v>
+        <v>2644</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2161</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1358</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>2045</v>
+        <v>4805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>110398</v>
+        <v>779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>102261</v>
+        <v>1419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>212660</v>
+        <v>2198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>779</v>
+        <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1419</v>
+        <v>1358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2198</v>
+        <v>2045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>116444</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>153</v>
@@ -4676,13 +4676,13 @@
         <v>109425</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>318</v>
@@ -4691,270 +4691,270 @@
         <v>225869</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>3471</v>
+        <v>185028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="I16" s="7">
-        <v>4304</v>
+        <v>166612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>525</v>
       </c>
       <c r="N16" s="7">
-        <v>7775</v>
+        <v>351638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6332</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7076</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" s="7">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4619</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5404</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M17" s="7">
-        <v>13</v>
-      </c>
       <c r="N17" s="7">
-        <v>10023</v>
+        <v>13408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>3591</v>
+        <v>6040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>3178</v>
+        <v>7322</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>6768</v>
+        <v>13361</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>178171</v>
+        <v>2012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>170049</v>
+        <v>3156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
-        <v>465</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>348221</v>
+        <v>5168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>1525</v>
+        <v>3314</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>4550</v>
+        <v>6313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>6075</v>
+        <v>9627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,306 +4963,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D21" s="7">
-        <v>191376</v>
+        <v>202725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="I21" s="7">
-        <v>187486</v>
+        <v>190479</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="N21" s="7">
-        <v>378862</v>
+        <v>393203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>141560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>130672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>272232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>926</v>
+        <v>656</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>926</v>
+        <v>3498</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>5907</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>6581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>23702</v>
+        <v>1261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>18415</v>
+        <v>1155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>42116</v>
+        <v>2415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1312</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>1312</v>
+        <v>3428</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,252 +5271,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="D27" s="7">
-        <v>23702</v>
+        <v>149109</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I27" s="7">
-        <v>20653</v>
+        <v>139046</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>50</v>
+        <v>448</v>
       </c>
       <c r="N27" s="7">
-        <v>44354</v>
+        <v>288155</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="D28" s="7">
-        <v>674</v>
+        <v>178171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="I28" s="7">
-        <v>5907</v>
+        <v>170049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M28" s="7">
-        <v>10</v>
+        <v>465</v>
       </c>
       <c r="N28" s="7">
-        <v>6581</v>
+        <v>348221</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>2842</v>
+        <v>4619</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>346</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>656</v>
+        <v>5404</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>3498</v>
+        <v>10023</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>2772</v>
+        <v>3471</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>656</v>
+        <v>4304</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M30" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>3428</v>
+        <v>7775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>141560</v>
+        <v>1525</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4550</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6075</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="H31" s="7">
-        <v>204</v>
-      </c>
-      <c r="I31" s="7">
-        <v>130672</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M31" s="7">
-        <v>423</v>
-      </c>
-      <c r="N31" s="7">
-        <v>272232</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>363</v>
@@ -5525,52 +5525,52 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>1261</v>
+        <v>3591</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>364</v>
+        <v>254</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>1155</v>
+        <v>3178</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>366</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N32" s="7">
-        <v>2415</v>
+        <v>6768</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,49 +5579,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D33" s="7">
-        <v>149109</v>
+        <v>191376</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="I33" s="7">
-        <v>139046</v>
+        <v>187486</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="N33" s="7">
-        <v>288155</v>
+        <v>378862</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,55 +5632,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>912</v>
       </c>
       <c r="D34" s="7">
-        <v>12828</v>
+        <v>638858</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H34" s="7">
-        <v>28</v>
+        <v>848</v>
       </c>
       <c r="I34" s="7">
-        <v>19694</v>
+        <v>588010</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M34" s="7">
-        <v>47</v>
+        <v>1760</v>
       </c>
       <c r="N34" s="7">
-        <v>32522</v>
+        <v>1226868</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>23</v>
@@ -5689,13 +5689,13 @@
         <v>15728</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
@@ -5704,13 +5704,13 @@
         <v>16289</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="M35" s="7">
         <v>46</v>
@@ -5719,166 +5719,166 @@
         <v>32017</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7">
-        <v>10364</v>
+        <v>12828</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="H36" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I36" s="7">
-        <v>11505</v>
+        <v>19694</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>377</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="M36" s="7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N36" s="7">
-        <v>21869</v>
+        <v>32522</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>912</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>638858</v>
+        <v>5577</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>379</v>
+        <v>171</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>380</v>
+        <v>84</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7">
-        <v>848</v>
+        <v>16</v>
       </c>
       <c r="I37" s="7">
-        <v>588010</v>
+        <v>11592</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>381</v>
+        <v>51</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="M37" s="7">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="N37" s="7">
-        <v>1226868</v>
+        <v>17169</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" s="7">
-        <v>5577</v>
+        <v>10364</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H38" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="7">
-        <v>11592</v>
+        <v>11505</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M38" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N38" s="7">
-        <v>17169</v>
+        <v>21869</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5893,13 @@
         <v>683355</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>932</v>
@@ -5908,13 +5908,13 @@
         <v>647089</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>1908</v>
@@ -5923,13 +5923,13 @@
         <v>1330444</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5950,7 +5950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27775F92-E009-48B9-AC3E-87DE45DF619A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EDFFF7-0C2F-42DC-BAB4-53BB8D4711DD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6068,208 +6068,208 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>3636</v>
+        <v>21375</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>3349</v>
+        <v>19444</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>6985</v>
+        <v>40820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>6066</v>
+        <v>786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>399</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>9211</v>
+        <v>1023</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1809</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15277</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2371</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="7">
-        <v>7</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4289</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>192778</v>
+        <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>173589</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
         <v>562</v>
       </c>
-      <c r="N7" s="7">
-        <v>366367</v>
-      </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6278,43 +6278,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2394</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2394</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,108 +6323,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7">
-        <v>204397</v>
+        <v>22723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>190915</v>
+        <v>20467</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>607</v>
+        <v>49</v>
       </c>
       <c r="N9" s="7">
-        <v>395312</v>
+        <v>43191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
-        <v>3761</v>
+        <v>103823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>3096</v>
+        <v>91054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="N10" s="7">
-        <v>6858</v>
+        <v>194877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -6433,13 +6433,13 @@
         <v>3475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -6448,13 +6448,13 @@
         <v>2817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -6463,166 +6463,166 @@
         <v>6292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>3761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>424</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>1363</v>
+        <v>3096</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>1363</v>
+        <v>6858</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>103823</v>
+        <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>91054</v>
+        <v>727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>194877</v>
+        <v>1427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>727</v>
+        <v>1363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1427</v>
+        <v>1363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6637,13 @@
         <v>111759</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>144</v>
@@ -6652,13 +6652,13 @@
         <v>99057</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>294</v>
@@ -6667,270 +6667,270 @@
         <v>210817</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>2769</v>
+        <v>192778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="I16" s="7">
-        <v>4194</v>
+        <v>173589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>438</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>562</v>
       </c>
       <c r="N16" s="7">
-        <v>6963</v>
+        <v>366367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>5722</v>
+        <v>6066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>4771</v>
+        <v>9211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>34</v>
+        <v>445</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>10492</v>
+        <v>15277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>713</v>
+        <v>3636</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>3181</v>
+        <v>3349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>3894</v>
+        <v>6985</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>175775</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2394</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2394</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="7">
-        <v>238</v>
-      </c>
-      <c r="I19" s="7">
-        <v>174656</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>485</v>
-      </c>
-      <c r="N19" s="7">
-        <v>350431</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>462</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>463</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1581</v>
+        <v>1917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>1474</v>
+        <v>2371</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>3055</v>
+        <v>4289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,306 +6939,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D21" s="7">
-        <v>186560</v>
+        <v>204397</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="I21" s="7">
-        <v>188275</v>
+        <v>190915</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="N21" s="7">
-        <v>374835</v>
+        <v>395312</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>134226</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="7">
+        <v>209</v>
+      </c>
+      <c r="I22" s="7">
+        <v>126001</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>260228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>786</v>
+        <v>13619</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>470</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>471</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>1023</v>
+        <v>7027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>1809</v>
+        <v>20646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>3993</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>5219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>450</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>9211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>72</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>21375</v>
+        <v>891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>19444</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>40820</v>
+        <v>891</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>562</v>
+        <v>1353</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>334</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>562</v>
+        <v>2541</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,306 +7247,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D27" s="7">
-        <v>22723</v>
+        <v>154082</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I27" s="7">
-        <v>20467</v>
+        <v>139435</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="N27" s="7">
-        <v>43191</v>
+        <v>293517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="D28" s="7">
-        <v>3993</v>
+        <v>175775</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="I28" s="7">
-        <v>5219</v>
+        <v>174656</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>489</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="N28" s="7">
-        <v>9211</v>
+        <v>350431</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>482</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>13619</v>
+        <v>5722</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>486</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>7027</v>
+        <v>4771</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M29" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>20646</v>
+        <v>10492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>489</v>
+        <v>65</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>490</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>1353</v>
+        <v>2769</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>1188</v>
+        <v>4194</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M30" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>2541</v>
+        <v>6963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>134226</v>
+        <v>1581</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>495</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="H31" s="7">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>126001</v>
+        <v>1474</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>496</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>497</v>
+        <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="M31" s="7">
-        <v>410</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>260228</v>
+        <v>3055</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>499</v>
+        <v>361</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>891</v>
+        <v>713</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>3181</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>141</v>
+        <v>499</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>891</v>
+        <v>3894</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>408</v>
+        <v>115</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,49 +7555,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D33" s="7">
-        <v>154082</v>
+        <v>186560</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="I33" s="7">
-        <v>139435</v>
+        <v>188275</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="N33" s="7">
-        <v>293517</v>
+        <v>374835</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,55 +7608,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>897</v>
       </c>
       <c r="D34" s="7">
-        <v>14159</v>
+        <v>627978</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>503</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>505</v>
       </c>
       <c r="H34" s="7">
-        <v>23</v>
+        <v>878</v>
       </c>
       <c r="I34" s="7">
-        <v>15858</v>
+        <v>584744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>210</v>
+        <v>506</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>507</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M34" s="7">
-        <v>43</v>
+        <v>1775</v>
       </c>
       <c r="N34" s="7">
-        <v>30017</v>
+        <v>1212723</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>344</v>
+        <v>509</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>31</v>
+        <v>510</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>40</v>
@@ -7665,13 +7665,13 @@
         <v>29667</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -7680,13 +7680,13 @@
         <v>24849</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -7695,166 +7695,166 @@
         <v>54516</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>3983</v>
+        <v>14159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>263</v>
+        <v>518</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="H36" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I36" s="7">
-        <v>8103</v>
+        <v>15858</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>512</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="M36" s="7">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N36" s="7">
-        <v>12087</v>
+        <v>30017</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>897</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>627978</v>
+        <v>3735</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>514</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>515</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
-        <v>878</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>584744</v>
+        <v>4595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>516</v>
+        <v>420</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>517</v>
+        <v>277</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>518</v>
+        <v>353</v>
       </c>
       <c r="M37" s="7">
-        <v>1775</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>1212723</v>
+        <v>8330</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>520</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>521</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>3735</v>
+        <v>3983</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="7">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8103</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H38" s="7">
-        <v>7</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4595</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>304</v>
+        <v>462</v>
       </c>
       <c r="M38" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N38" s="7">
-        <v>8330</v>
+        <v>12087</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>392</v>
+        <v>133</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7869,13 @@
         <v>679522</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>957</v>
@@ -7884,13 +7884,13 @@
         <v>638150</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>1925</v>
@@ -7899,13 +7899,13 @@
         <v>1317672</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3108-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3108-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429EBAEA-4233-4776-B029-235A88BAF294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A7D50F-EE6E-475E-A03A-A971B152631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFDD6C8-F9C0-4482-A30D-695856260EF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC97C3B3-8127-426B-8585-984ED17A302F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="522">
   <si>
     <t>Menores según la frecuencia de tomar leche en 2007 (Tasa respuesta: 92,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -97,13 +97,13 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>21,06%</t>
+    <t>16,92%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>10,43%</t>
+    <t>10,75%</t>
   </si>
   <si>
     <t>5 o 6 veces a la semana</t>
@@ -124,25 +124,25 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>78,94%</t>
+    <t>83,08%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -151,1471 +151,1426 @@
     <t>0,54%</t>
   </si>
   <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar leche en 2016 (Tasa respuesta: 90,55%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2012 (Tasa respuesta: 90,9%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar leche en 2015 (Tasa respuesta: 90,55%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>3,89%</t>
@@ -1624,34 +1579,31 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB78D3-0671-4864-BAE7-5593794F0B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1149643-5445-4C2F-9B88-CAA2FCA7E129}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2567,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2576,13 +2528,13 @@
         <v>4208</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2549,13 @@
         <v>4068</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2612,13 +2564,13 @@
         <v>1915</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -2627,13 +2579,13 @@
         <v>5984</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2600,13 @@
         <v>1269</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2663,13 +2615,13 @@
         <v>3473</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2681,10 +2633,10 @@
         <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2651,13 @@
         <v>107727</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>147</v>
@@ -2714,13 +2666,13 @@
         <v>98296</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -2729,13 +2681,13 @@
         <v>206023</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2743,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2803,13 +2755,13 @@
         <v>3318</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2818,10 +2770,10 @@
         <v>4479</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>78</v>
@@ -2836,10 +2788,10 @@
         <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2806,13 @@
         <v>3910</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2869,13 +2821,13 @@
         <v>2570</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2884,13 +2836,13 @@
         <v>6480</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2857,13 @@
         <v>7455</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2920,13 +2872,13 @@
         <v>7480</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2935,13 +2887,13 @@
         <v>14936</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2908,13 @@
         <v>2773</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -2971,13 +2923,13 @@
         <v>4968</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2986,13 +2938,13 @@
         <v>7741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2959,13 @@
         <v>184080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -3022,13 +2974,13 @@
         <v>157507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>532</v>
@@ -3037,13 +2989,13 @@
         <v>341587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3051,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3111,13 +3063,13 @@
         <v>3270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3126,13 +3078,13 @@
         <v>2350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3141,13 +3093,13 @@
         <v>5620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3114,13 @@
         <v>2015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3177,13 +3129,13 @@
         <v>2603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3192,13 +3144,13 @@
         <v>4617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3165,13 @@
         <v>2493</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3228,13 +3180,13 @@
         <v>4793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3243,13 +3195,13 @@
         <v>7286</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3216,13 @@
         <v>2001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3279,13 +3231,13 @@
         <v>2868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3294,13 +3246,13 @@
         <v>4869</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3267,13 @@
         <v>124859</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>190</v>
@@ -3330,13 +3282,13 @@
         <v>114502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>383</v>
@@ -3345,13 +3297,13 @@
         <v>239360</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3359,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3419,13 +3371,13 @@
         <v>650</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3434,13 +3386,13 @@
         <v>2210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3449,13 +3401,13 @@
         <v>2860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3422,13 @@
         <v>2568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3485,13 +3437,13 @@
         <v>2874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3500,13 +3452,13 @@
         <v>5441</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3473,13 @@
         <v>8565</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3536,13 +3488,13 @@
         <v>7038</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -3551,13 +3503,13 @@
         <v>15603</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3524,13 @@
         <v>3960</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3587,13 +3539,13 @@
         <v>4735</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3602,13 +3554,13 @@
         <v>8695</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3575,13 @@
         <v>178102</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>236</v>
@@ -3638,13 +3590,13 @@
         <v>180512</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M32" s="7">
         <v>498</v>
@@ -3653,13 +3605,13 @@
         <v>358614</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3679,13 @@
         <v>10584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -3742,13 +3694,13 @@
         <v>10829</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -3757,13 +3709,13 @@
         <v>21413</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3730,13 @@
         <v>11371</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -3793,13 +3745,13 @@
         <v>9376</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -3808,13 +3760,13 @@
         <v>20746</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3781,13 @@
         <v>22581</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -3844,13 +3796,13 @@
         <v>22155</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M36" s="7">
         <v>66</v>
@@ -3859,13 +3811,13 @@
         <v>44737</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3832,13 @@
         <v>10003</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -3895,13 +3847,13 @@
         <v>16044</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -3910,13 +3862,13 @@
         <v>26047</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3883,13 @@
         <v>617015</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>852</v>
@@ -3946,28 +3898,28 @@
         <v>571897</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>1780</v>
       </c>
       <c r="N38" s="7">
-        <v>1188911</v>
+        <v>1188912</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +3961,7 @@
         <v>1949</v>
       </c>
       <c r="N39" s="7">
-        <v>1301854</v>
+        <v>1301855</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>26</v>
@@ -4023,7 +3975,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4044,7 +3996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BD50A-8AB4-41FD-8940-DE3CD191DE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858E73BA-AEAB-45B3-A6EE-6A1ED345F382}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4061,7 +4013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4174,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4189,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4204,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4234,13 +4186,13 @@
         <v>1312</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4249,13 +4201,13 @@
         <v>1312</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4291,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4306,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4336,13 +4288,13 @@
         <v>926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4351,13 +4303,13 @@
         <v>926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4387,10 +4339,10 @@
         <v>18415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4402,10 +4354,10 @@
         <v>42116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4476,13 +4428,13 @@
         <v>687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4497,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4506,13 +4458,13 @@
         <v>2045</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4479,13 @@
         <v>779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4542,13 +4494,13 @@
         <v>1419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4557,13 +4509,13 @@
         <v>2198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,10 +4533,10 @@
         <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4593,13 +4545,13 @@
         <v>2161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4608,13 +4560,13 @@
         <v>4805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4581,13 @@
         <v>1935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4644,13 +4596,13 @@
         <v>2227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4659,13 +4611,13 @@
         <v>4162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4632,13 @@
         <v>110398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -4695,13 +4647,13 @@
         <v>102261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>299</v>
@@ -4710,13 +4662,13 @@
         <v>212660</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,7 +4724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4784,13 +4736,13 @@
         <v>3314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4799,13 +4751,13 @@
         <v>6313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4814,13 +4766,13 @@
         <v>9627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4787,13 @@
         <v>2012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4850,13 +4802,13 @@
         <v>3156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4865,13 +4817,13 @@
         <v>5168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4838,13 @@
         <v>6040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4901,13 +4853,13 @@
         <v>7322</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4916,13 +4868,13 @@
         <v>13361</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4889,13 @@
         <v>6332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4952,13 +4904,13 @@
         <v>7076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4967,13 +4919,13 @@
         <v>13408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4940,13 @@
         <v>185028</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -5003,13 +4955,13 @@
         <v>166612</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -5018,13 +4970,13 @@
         <v>351638</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,7 +5032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5092,13 +5044,13 @@
         <v>2772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5107,13 +5059,13 @@
         <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5122,13 +5074,13 @@
         <v>3428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5095,13 @@
         <v>1261</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5158,13 +5110,13 @@
         <v>1155</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5173,13 +5125,13 @@
         <v>2415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5146,13 @@
         <v>674</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5209,13 +5161,13 @@
         <v>5907</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -5224,13 +5176,13 @@
         <v>6581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5197,13 @@
         <v>2842</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5260,13 +5212,13 @@
         <v>656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5275,13 +5227,13 @@
         <v>3498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5248,13 @@
         <v>141560</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -5311,13 +5263,13 @@
         <v>130672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>423</v>
@@ -5326,13 +5278,13 @@
         <v>272232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,7 +5340,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5400,13 +5352,13 @@
         <v>3591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5415,13 +5367,13 @@
         <v>3178</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5430,13 +5382,13 @@
         <v>6768</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5403,13 @@
         <v>1525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -5466,13 +5418,13 @@
         <v>4550</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5481,13 +5433,13 @@
         <v>6075</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5454,13 @@
         <v>3471</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>357</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5517,13 +5469,13 @@
         <v>4304</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>360</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -5532,13 +5484,13 @@
         <v>7775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,10 +5508,10 @@
         <v>41</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -5568,13 +5520,13 @@
         <v>5404</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -5583,13 +5535,13 @@
         <v>10023</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5556,13 @@
         <v>178171</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="H32" s="7">
         <v>222</v>
@@ -5619,13 +5571,13 @@
         <v>170049</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="M32" s="7">
         <v>465</v>
@@ -5634,13 +5586,13 @@
         <v>348221</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5660,13 @@
         <v>10364</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -5723,13 +5675,13 @@
         <v>11505</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>363</v>
+        <v>56</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -5738,13 +5690,13 @@
         <v>21869</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5711,13 @@
         <v>5577</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -5774,13 +5726,13 @@
         <v>11592</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M35" s="7">
         <v>24</v>
@@ -5789,13 +5741,13 @@
         <v>17169</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5762,13 @@
         <v>12828</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -5825,13 +5777,13 @@
         <v>19694</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>47</v>
@@ -5840,13 +5792,13 @@
         <v>32522</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>52</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5813,13 @@
         <v>15728</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -5876,13 +5828,13 @@
         <v>16289</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -5894,10 +5846,10 @@
         <v>41</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5864,13 @@
         <v>638858</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="H38" s="7">
         <v>848</v>
@@ -5927,13 +5879,13 @@
         <v>588010</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="M38" s="7">
         <v>1760</v>
@@ -5942,13 +5894,13 @@
         <v>1226868</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +5956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6025,7 +5977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FBA9D6-8A83-4949-8994-15246AC8850C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A4B36F-BB13-4C1B-8436-7F48DCEEA3DD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6042,7 +5994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6155,7 +6107,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6170,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6185,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6152,13 @@
         <v>562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6221,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6230,13 +6182,13 @@
         <v>562</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6272,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6287,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6254,13 @@
         <v>786</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6317,13 +6269,13 @@
         <v>1023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6332,13 +6284,13 @@
         <v>1809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,10 +6305,10 @@
         <v>21375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -6368,10 +6320,10 @@
         <v>19444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -6383,13 +6335,13 @@
         <v>40820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6415,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6472,13 +6424,13 @@
         <v>1363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6487,13 +6439,13 @@
         <v>1363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6460,13 @@
         <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6523,13 +6475,13 @@
         <v>727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6538,13 +6490,13 @@
         <v>1427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6511,13 @@
         <v>3761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6574,13 +6526,13 @@
         <v>3096</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6589,13 +6541,13 @@
         <v>6858</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6562,13 @@
         <v>3475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6625,13 +6577,13 @@
         <v>2817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6640,13 +6592,13 @@
         <v>6292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6613,13 @@
         <v>103823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6676,13 +6628,13 @@
         <v>91054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>272</v>
@@ -6691,13 +6643,13 @@
         <v>194877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6765,13 +6717,13 @@
         <v>1917</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6783,10 +6735,10 @@
         <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6795,13 +6747,13 @@
         <v>4289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6774,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -6831,13 +6783,13 @@
         <v>2394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6846,13 +6798,13 @@
         <v>2394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6819,13 @@
         <v>3636</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -6882,13 +6834,13 @@
         <v>3349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -6897,13 +6849,13 @@
         <v>6985</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6870,13 @@
         <v>6066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6933,13 +6885,13 @@
         <v>9211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -6948,13 +6900,13 @@
         <v>15277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6921,13 @@
         <v>192778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H20" s="7">
         <v>278</v>
@@ -6984,13 +6936,13 @@
         <v>173589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>562</v>
@@ -6999,13 +6951,13 @@
         <v>366367</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,7 +7013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7073,13 +7025,13 @@
         <v>1353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7088,13 +7040,13 @@
         <v>1188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -7103,13 +7055,13 @@
         <v>2541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7076,13 @@
         <v>891</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7145,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -7154,13 +7106,13 @@
         <v>891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7127,13 @@
         <v>3993</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -7190,13 +7142,13 @@
         <v>5219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7205,13 +7157,13 @@
         <v>9211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7178,13 @@
         <v>13619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7241,13 +7193,13 @@
         <v>7027</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -7256,13 +7208,13 @@
         <v>20646</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7229,13 @@
         <v>134226</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -7292,13 +7244,13 @@
         <v>126001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>410</v>
@@ -7307,13 +7259,13 @@
         <v>260228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,7 +7321,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7381,13 +7333,13 @@
         <v>713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7396,13 +7348,13 @@
         <v>3181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>493</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -7411,13 +7363,13 @@
         <v>3894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7384,13 @@
         <v>1581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>485</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7447,13 +7399,13 @@
         <v>1474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7462,13 +7414,13 @@
         <v>3055</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>495</v>
+        <v>343</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7435,13 @@
         <v>2769</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7498,13 +7450,13 @@
         <v>4194</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>489</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -7513,13 +7465,13 @@
         <v>6963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7486,13 @@
         <v>5722</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>503</v>
+        <v>161</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>504</v>
+        <v>275</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -7549,13 +7501,13 @@
         <v>4771</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7567,10 +7519,10 @@
         <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>269</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>506</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7537,13 @@
         <v>175775</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>238</v>
@@ -7600,13 +7552,13 @@
         <v>174656</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="M32" s="7">
         <v>485</v>
@@ -7615,13 +7567,13 @@
         <v>350431</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>512</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7641,13 @@
         <v>3983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -7704,13 +7656,13 @@
         <v>8103</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>516</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -7719,13 +7671,13 @@
         <v>12087</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7692,13 @@
         <v>3735</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -7755,13 +7707,13 @@
         <v>4595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>261</v>
+        <v>433</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -7770,13 +7722,13 @@
         <v>8330</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>107</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7743,13 @@
         <v>14159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>520</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -7806,13 +7758,13 @@
         <v>15858</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7821,13 +7773,13 @@
         <v>30017</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>90</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7794,13 @@
         <v>29667</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>524</v>
+        <v>407</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -7857,13 +7809,13 @@
         <v>24849</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>478</v>
+        <v>307</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -7872,13 +7824,13 @@
         <v>54516</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7845,13 @@
         <v>627978</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="H38" s="7">
         <v>878</v>
@@ -7908,13 +7860,13 @@
         <v>584744</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="M38" s="7">
         <v>1775</v>
@@ -7923,13 +7875,13 @@
         <v>1212723</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,7 +7937,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
